--- a/data-raw/Johdanto-kuvioiden_data_2022.xlsx
+++ b/data-raw/Johdanto-kuvioiden_data_2022.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pttry.sharepoint.com/sites/Tuottavuuslautakunta/Shared Documents/General/pRoductivity/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="8_{47074589-0F86-4713-B66E-912647E95F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B399705-28D9-4798-A588-5D1C67C2347A}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="8_{47074589-0F86-4713-B66E-912647E95F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF5B47EE-D7EF-44F5-882A-E8DFFDB49B05}"/>
   <bookViews>
-    <workbookView xWindow="615" yWindow="255" windowWidth="13965" windowHeight="15480" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="720" windowWidth="21060" windowHeight="15480" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kuvio_1_5" sheetId="1" r:id="rId1"/>
     <sheet name="Kuvio_1_6" sheetId="2" r:id="rId2"/>
     <sheet name="Kuvio_1_7" sheetId="3" r:id="rId3"/>
     <sheet name="Kuvio_1_8" sheetId="4" r:id="rId4"/>
+    <sheet name="Kuvio_7_1" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="Macrobond_Object1" localSheetId="0">Kuvio_1_5!$A$1:$M$332</definedName>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>vuosi</t>
   </si>
@@ -87,6 +88,21 @@
   </si>
   <si>
     <t>Yhdysvallat</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>Tavarat, OECD mediaani</t>
+  </si>
+  <si>
+    <t>Palvelut, OECD mediaani</t>
+  </si>
+  <si>
+    <t>Tavarat, Suomi</t>
+  </si>
+  <si>
+    <t>Palvelut, Suomi</t>
   </si>
 </sst>
 </file>
@@ -12196,7 +12212,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
@@ -13252,7 +13268,1243 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B61EF17-9030-4BED-AAB1-FFAA55E8D989}">
+  <dimension ref="A1:E131"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>39448</v>
+      </c>
+      <c r="B2">
+        <v>101.23250460962737</v>
+      </c>
+      <c r="C2">
+        <v>99.867811984110688</v>
+      </c>
+      <c r="D2">
+        <v>101.8700886742124</v>
+      </c>
+      <c r="E2">
+        <v>91.315652626105035</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>39539</v>
+      </c>
+      <c r="B3">
+        <v>101.62934873554616</v>
+      </c>
+      <c r="C3">
+        <v>100.18760107007651</v>
+      </c>
+      <c r="D3">
+        <v>109.00439766419149</v>
+      </c>
+      <c r="E3">
+        <v>97.532790200496905</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>39630</v>
+      </c>
+      <c r="B4">
+        <v>100.4797920841051</v>
+      </c>
+      <c r="C4">
+        <v>99.838119296798482</v>
+      </c>
+      <c r="D4">
+        <v>102.46990123278783</v>
+      </c>
+      <c r="E4">
+        <v>101.97030103426358</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>39722</v>
+      </c>
+      <c r="B5">
+        <v>96.269283080936844</v>
+      </c>
+      <c r="C5">
+        <v>99.794634806631052</v>
+      </c>
+      <c r="D5">
+        <v>86.655612428808311</v>
+      </c>
+      <c r="E5">
+        <v>109.18125613913445</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>39814</v>
+      </c>
+      <c r="B6">
+        <v>90.670769555157875</v>
+      </c>
+      <c r="C6">
+        <v>95.10486537051014</v>
+      </c>
+      <c r="D6">
+        <v>74.296013265085435</v>
+      </c>
+      <c r="E6">
+        <v>95.637603281909051</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>39904</v>
+      </c>
+      <c r="B7">
+        <v>89.085215122588664</v>
+      </c>
+      <c r="C7">
+        <v>93.51715031978928</v>
+      </c>
+      <c r="D7">
+        <v>72.952202436738517</v>
+      </c>
+      <c r="E7">
+        <v>86.855029756745822</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>39995</v>
+      </c>
+      <c r="B8">
+        <v>90.709255187041734</v>
+      </c>
+      <c r="C8">
+        <v>92.400559776463851</v>
+      </c>
+      <c r="D8">
+        <v>75.974334943407115</v>
+      </c>
+      <c r="E8">
+        <v>86.138556653377236</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>40087</v>
+      </c>
+      <c r="B9">
+        <v>93.14891500971936</v>
+      </c>
+      <c r="C9">
+        <v>93.132561349251532</v>
+      </c>
+      <c r="D9">
+        <v>87.290029558070799</v>
+      </c>
+      <c r="E9">
+        <v>91.384988732882647</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>40179</v>
+      </c>
+      <c r="B10">
+        <v>94.314295119074103</v>
+      </c>
+      <c r="C10">
+        <v>94.443331561087504</v>
+      </c>
+      <c r="D10">
+        <v>70.564487059332421</v>
+      </c>
+      <c r="E10">
+        <v>91.962789622696008</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>40269</v>
+      </c>
+      <c r="B11">
+        <v>97.556881795961715</v>
+      </c>
+      <c r="C11">
+        <v>96.484424928955221</v>
+      </c>
+      <c r="D11">
+        <v>83.397015355778251</v>
+      </c>
+      <c r="E11">
+        <v>103.56503149014848</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>40360</v>
+      </c>
+      <c r="B12">
+        <v>100.75305569360509</v>
+      </c>
+      <c r="C12">
+        <v>98.640642646225658</v>
+      </c>
+      <c r="D12">
+        <v>83.183620503208132</v>
+      </c>
+      <c r="E12">
+        <v>100.44490668515628</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>40452</v>
+      </c>
+      <c r="B13">
+        <v>101.71725481047866</v>
+      </c>
+      <c r="C13">
+        <v>98.408392521470944</v>
+      </c>
+      <c r="D13">
+        <v>90.508254631965983</v>
+      </c>
+      <c r="E13">
+        <v>94.805570000577788</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>40544</v>
+      </c>
+      <c r="B14">
+        <v>102.99410560664118</v>
+      </c>
+      <c r="C14">
+        <v>99.794409443007737</v>
+      </c>
+      <c r="D14">
+        <v>84.844639896186294</v>
+      </c>
+      <c r="E14">
+        <v>103.9117120240365</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>40634</v>
+      </c>
+      <c r="B15">
+        <v>104.74950472319833</v>
+      </c>
+      <c r="C15">
+        <v>101.81827659001469</v>
+      </c>
+      <c r="D15">
+        <v>81.470694254199415</v>
+      </c>
+      <c r="E15">
+        <v>99.21996879875195</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>40725</v>
+      </c>
+      <c r="B16">
+        <v>106.19789482696527</v>
+      </c>
+      <c r="C16">
+        <v>104.90739646550901</v>
+      </c>
+      <c r="D16">
+        <v>83.714223920409495</v>
+      </c>
+      <c r="E16">
+        <v>108.16432657306292</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>40817</v>
+      </c>
+      <c r="B17">
+        <v>105.90792748988045</v>
+      </c>
+      <c r="C17">
+        <v>105.24167401911282</v>
+      </c>
+      <c r="D17">
+        <v>77.95833032946436</v>
+      </c>
+      <c r="E17">
+        <v>114.40457618304731</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>40909</v>
+      </c>
+      <c r="B18">
+        <v>106.19245777168794</v>
+      </c>
+      <c r="C18">
+        <v>105.85609048292284</v>
+      </c>
+      <c r="D18">
+        <v>84.031432485040739</v>
+      </c>
+      <c r="E18">
+        <v>107.67897382561968</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>41000</v>
+      </c>
+      <c r="B19">
+        <v>106.87083541158812</v>
+      </c>
+      <c r="C19">
+        <v>107.15933370892819</v>
+      </c>
+      <c r="D19">
+        <v>82.082041669670545</v>
+      </c>
+      <c r="E19">
+        <v>112.02403651701623</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>41091</v>
+      </c>
+      <c r="B20">
+        <v>107.66905135102287</v>
+      </c>
+      <c r="C20">
+        <v>106.76177011469817</v>
+      </c>
+      <c r="D20">
+        <v>83.085574219594847</v>
+      </c>
+      <c r="E20">
+        <v>106.98561275784364</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>41183</v>
+      </c>
+      <c r="B21">
+        <v>109.09304224069353</v>
+      </c>
+      <c r="C21">
+        <v>108.87077057179</v>
+      </c>
+      <c r="D21">
+        <v>76.79330978300051</v>
+      </c>
+      <c r="E21">
+        <v>112.07026058820129</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>41275</v>
+      </c>
+      <c r="B22">
+        <v>110.41517575879354</v>
+      </c>
+      <c r="C22">
+        <v>111.15467485564338</v>
+      </c>
+      <c r="D22">
+        <v>84.452454761733122</v>
+      </c>
+      <c r="E22">
+        <v>111.90847633905355</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>41365</v>
+      </c>
+      <c r="B23">
+        <v>110.71459621258222</v>
+      </c>
+      <c r="C23">
+        <v>111.57077205083877</v>
+      </c>
+      <c r="D23">
+        <v>81.395717684377487</v>
+      </c>
+      <c r="E23">
+        <v>110.98399491535216</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>41456</v>
+      </c>
+      <c r="B24">
+        <v>112.37221601308525</v>
+      </c>
+      <c r="C24">
+        <v>112.84603596383933</v>
+      </c>
+      <c r="D24">
+        <v>82.554970802393484</v>
+      </c>
+      <c r="E24">
+        <v>114.08100768475182</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>41548</v>
+      </c>
+      <c r="B25">
+        <v>112.01735813276903</v>
+      </c>
+      <c r="C25">
+        <v>112.16759766829701</v>
+      </c>
+      <c r="D25">
+        <v>77.721865763102883</v>
+      </c>
+      <c r="E25">
+        <v>111.79291616109089</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>41640</v>
+      </c>
+      <c r="B26">
+        <v>116.11625685042044</v>
+      </c>
+      <c r="C26">
+        <v>117.55671066029291</v>
+      </c>
+      <c r="D26">
+        <v>77.237401773484251</v>
+      </c>
+      <c r="E26">
+        <v>109.71283295776274</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>41730</v>
+      </c>
+      <c r="B27">
+        <v>116.88248314249755</v>
+      </c>
+      <c r="C27">
+        <v>120.53919037266427</v>
+      </c>
+      <c r="D27">
+        <v>80.276836565496367</v>
+      </c>
+      <c r="E27">
+        <v>112.27826890853412</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>41821</v>
+      </c>
+      <c r="B28">
+        <v>117.40368450423733</v>
+      </c>
+      <c r="C28">
+        <v>123.14034259921436</v>
+      </c>
+      <c r="D28">
+        <v>81.182322831807369</v>
+      </c>
+      <c r="E28">
+        <v>115.90685849656208</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>41913</v>
+      </c>
+      <c r="B29">
+        <v>118.48495554598718</v>
+      </c>
+      <c r="C29">
+        <v>123.20716830768018</v>
+      </c>
+      <c r="D29">
+        <v>78.621584600966045</v>
+      </c>
+      <c r="E29">
+        <v>112.41694112208933</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>42005</v>
+      </c>
+      <c r="B30">
+        <v>120.67844656284714</v>
+      </c>
+      <c r="C30">
+        <v>128.44736208466128</v>
+      </c>
+      <c r="D30">
+        <v>75.091918390887471</v>
+      </c>
+      <c r="E30">
+        <v>122.79424510313746</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>42095</v>
+      </c>
+      <c r="B31">
+        <v>120.13015114064493</v>
+      </c>
+      <c r="C31">
+        <v>129.04411533481155</v>
+      </c>
+      <c r="D31">
+        <v>79.019537163867071</v>
+      </c>
+      <c r="E31">
+        <v>124.50453573698503</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>42186</v>
+      </c>
+      <c r="B32">
+        <v>121.38590854765204</v>
+      </c>
+      <c r="C32">
+        <v>128.47178789083711</v>
+      </c>
+      <c r="D32">
+        <v>76.193497224425059</v>
+      </c>
+      <c r="E32">
+        <v>125.45212919627896</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>42278</v>
+      </c>
+      <c r="B33">
+        <v>125.78283754305913</v>
+      </c>
+      <c r="C33">
+        <v>129.29974095020333</v>
+      </c>
+      <c r="D33">
+        <v>75.437964097757913</v>
+      </c>
+      <c r="E33">
+        <v>131.85416305541111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>42370</v>
+      </c>
+      <c r="B34">
+        <v>122.37242494326497</v>
+      </c>
+      <c r="C34">
+        <v>129.52494339502303</v>
+      </c>
+      <c r="D34">
+        <v>75.541777809819052</v>
+      </c>
+      <c r="E34">
+        <v>132.9173166926677</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>42461</v>
+      </c>
+      <c r="B35">
+        <v>128.74590848109111</v>
+      </c>
+      <c r="C35">
+        <v>133.65152594261903</v>
+      </c>
+      <c r="D35">
+        <v>81.718693677456571</v>
+      </c>
+      <c r="E35">
+        <v>132.52441208759461</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>42552</v>
+      </c>
+      <c r="B36">
+        <v>128.76699661041192</v>
+      </c>
+      <c r="C36">
+        <v>132.38987928425689</v>
+      </c>
+      <c r="D36">
+        <v>80.455626847379435</v>
+      </c>
+      <c r="E36">
+        <v>135.02051193158837</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>42644</v>
+      </c>
+      <c r="B37">
+        <v>130.97471283306584</v>
+      </c>
+      <c r="C37">
+        <v>135.99916701928041</v>
+      </c>
+      <c r="D37">
+        <v>77.052844063153344</v>
+      </c>
+      <c r="E37">
+        <v>135.32096839429133</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>42736</v>
+      </c>
+      <c r="B38">
+        <v>130.1673868608602</v>
+      </c>
+      <c r="C38">
+        <v>133.25717363542381</v>
+      </c>
+      <c r="D38">
+        <v>85.161848460817538</v>
+      </c>
+      <c r="E38">
+        <v>140.49806436701911</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>42826</v>
+      </c>
+      <c r="B39">
+        <v>133.23593527606917</v>
+      </c>
+      <c r="C39">
+        <v>137.96073111546747</v>
+      </c>
+      <c r="D39">
+        <v>87.376540984788406</v>
+      </c>
+      <c r="E39">
+        <v>146.06806494482001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>42917</v>
+      </c>
+      <c r="B40">
+        <v>133.85351167955218</v>
+      </c>
+      <c r="C40">
+        <v>139.79687736850084</v>
+      </c>
+      <c r="D40">
+        <v>87.820632975272162</v>
+      </c>
+      <c r="E40">
+        <v>145.44403998382157</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>43009</v>
+      </c>
+      <c r="B41">
+        <v>135.14542540034958</v>
+      </c>
+      <c r="C41">
+        <v>138.27589502124076</v>
+      </c>
+      <c r="D41">
+        <v>82.110878811909743</v>
+      </c>
+      <c r="E41">
+        <v>151.31449702432542</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>43101</v>
+      </c>
+      <c r="B42">
+        <v>136.4951098693661</v>
+      </c>
+      <c r="C42">
+        <v>139.56142481325031</v>
+      </c>
+      <c r="D42">
+        <v>88.426212962295438</v>
+      </c>
+      <c r="E42">
+        <v>147.94013982781533</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>43191</v>
+      </c>
+      <c r="B43">
+        <v>137.60708373540177</v>
+      </c>
+      <c r="C43">
+        <v>141.51025630210748</v>
+      </c>
+      <c r="D43">
+        <v>87.999423257155215</v>
+      </c>
+      <c r="E43">
+        <v>145.65204830415439</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>43282</v>
+      </c>
+      <c r="B44">
+        <v>136.87856675588608</v>
+      </c>
+      <c r="C44">
+        <v>142.02201695558648</v>
+      </c>
+      <c r="D44">
+        <v>84.959988465143113</v>
+      </c>
+      <c r="E44">
+        <v>151.79984977176863</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>43374</v>
+      </c>
+      <c r="B45">
+        <v>139.53586960598724</v>
+      </c>
+      <c r="C45">
+        <v>146.94506945590703</v>
+      </c>
+      <c r="D45">
+        <v>83.87571191694903</v>
+      </c>
+      <c r="E45">
+        <v>156.02935228520252</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>43466</v>
+      </c>
+      <c r="B46">
+        <v>141.2642361865241</v>
+      </c>
+      <c r="C46">
+        <v>148.78884341367288</v>
+      </c>
+      <c r="D46">
+        <v>92.509552303366746</v>
+      </c>
+      <c r="E46">
+        <v>165.52839891373432</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>43556</v>
+      </c>
+      <c r="B47">
+        <v>141.95738920251159</v>
+      </c>
+      <c r="C47">
+        <v>150.38137667786907</v>
+      </c>
+      <c r="D47">
+        <v>88.293562107995101</v>
+      </c>
+      <c r="E47">
+        <v>172.4157855203097</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>43647</v>
+      </c>
+      <c r="B48">
+        <v>146.44610771700115</v>
+      </c>
+      <c r="C48">
+        <v>152.63131077048502</v>
+      </c>
+      <c r="D48">
+        <v>87.987888400259536</v>
+      </c>
+      <c r="E48">
+        <v>173.0860345524932</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>43739</v>
+      </c>
+      <c r="B49">
+        <v>144.86502367763902</v>
+      </c>
+      <c r="C49">
+        <v>150.37138093072608</v>
+      </c>
+      <c r="D49">
+        <v>90.058395213034387</v>
+      </c>
+      <c r="E49">
+        <v>169.11076443057721</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>43831</v>
+      </c>
+      <c r="B50">
+        <v>137.36765520189644</v>
+      </c>
+      <c r="C50">
+        <v>140.96622747236106</v>
+      </c>
+      <c r="D50">
+        <v>86.66714728570399</v>
+      </c>
+      <c r="E50">
+        <v>162.40827410874212</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>43922</v>
+      </c>
+      <c r="B51">
+        <v>113.95525856912283</v>
+      </c>
+      <c r="C51">
+        <v>109.35970245051124</v>
+      </c>
+      <c r="D51">
+        <v>82.537668517049966</v>
+      </c>
+      <c r="E51">
+        <v>128.38735771653089</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>44013</v>
+      </c>
+      <c r="B52">
+        <v>125.63652657301063</v>
+      </c>
+      <c r="C52">
+        <v>115.53835594916193</v>
+      </c>
+      <c r="D52">
+        <v>85.455987311657424</v>
+      </c>
+      <c r="E52">
+        <v>127.50910036401456</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>44105</v>
+      </c>
+      <c r="B53">
+        <v>127.43138551143792</v>
+      </c>
+      <c r="C53">
+        <v>120.04002216103132</v>
+      </c>
+      <c r="D53">
+        <v>92.988248864537525</v>
+      </c>
+      <c r="E53">
+        <v>163.70254810192407</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>44197</v>
+      </c>
+      <c r="B54">
+        <v>130.91339947303641</v>
+      </c>
+      <c r="C54">
+        <v>123.06550494551674</v>
+      </c>
+      <c r="D54">
+        <v>88.264724965755903</v>
+      </c>
+      <c r="E54">
+        <v>138.02507655861788</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>44287</v>
+      </c>
+      <c r="B55">
+        <v>134.18994259102053</v>
+      </c>
+      <c r="C55">
+        <v>125.05498646050621</v>
+      </c>
+      <c r="D55">
+        <v>89.810395789777232</v>
+      </c>
+      <c r="E55">
+        <v>141.14520136361008</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>44378</v>
+      </c>
+      <c r="B56">
+        <v>139.6455680623198</v>
+      </c>
+      <c r="C56">
+        <v>137.17568533323762</v>
+      </c>
+      <c r="D56">
+        <v>93.84759570326581</v>
+      </c>
+      <c r="E56">
+        <v>147.2005546888542</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>44470</v>
+      </c>
+      <c r="D57">
+        <v>95.272150529882495</v>
+      </c>
+      <c r="E57">
+        <v>188.01640954527068</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>44562</v>
+      </c>
+      <c r="D58">
+        <v>89.4239780837719</v>
+      </c>
+      <c r="E58">
+        <v>150.94470445484484</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>44652</v>
+      </c>
+      <c r="D59">
+        <v>89.383606084637023</v>
+      </c>
+      <c r="E59">
+        <v>152.16964234124919</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="1"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="1"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1"/>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1"/>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1"/>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="1"/>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1"/>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="1"/>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="1"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="1"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="1"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="1"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="1"/>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1"/>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="1"/>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1"/>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1"/>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="1"/>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="1"/>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="1"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="1"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="1"/>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="1"/>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="1"/>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="1"/>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="1"/>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="1"/>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="1"/>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="1"/>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="1"/>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="1"/>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="1"/>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="1"/>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="1"/>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="1"/>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="1"/>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="1"/>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="1"/>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="1"/>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="1"/>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="1"/>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="1"/>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="1"/>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="1"/>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="1"/>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="1"/>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="1"/>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="1"/>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="1"/>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="1"/>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="1"/>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="1"/>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="1"/>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="1"/>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="84ef26b6-ae16-4e4e-9392-b7fef9600143">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="a9ba0a46-c686-46a2-ba56-670af7ed77b3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Asiakirja" ma:contentTypeID="0x010100DE10FD119F3C664B96DD054879BCD7CC" ma:contentTypeVersion="9" ma:contentTypeDescription="Luo uusi asiakirja." ma:contentTypeScope="" ma:versionID="9e0b2c17069702781a5de8ad55f0b85f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="84ef26b6-ae16-4e4e-9392-b7fef9600143" xmlns:ns3="a9ba0a46-c686-46a2-ba56-670af7ed77b3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fa8050250656ce68e4eaea5737762b71" ns2:_="" ns3:_="">
     <xsd:import namespace="84ef26b6-ae16-4e4e-9392-b7fef9600143"/>
@@ -13435,34 +14687,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="84ef26b6-ae16-4e4e-9392-b7fef9600143">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="a9ba0a46-c686-46a2-ba56-670af7ed77b3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1B5A05C-BEDF-444B-8528-D223F9BDC468}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09066E11-8467-4E34-9997-059CB5F8EFE3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09066E11-8467-4E34-9997-059CB5F8EFE3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{973A562A-66F0-44F8-A983-F28477F74325}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="84ef26b6-ae16-4e4e-9392-b7fef9600143"/>
+    <ds:schemaRef ds:uri="a9ba0a46-c686-46a2-ba56-670af7ed77b3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{973A562A-66F0-44F8-A983-F28477F74325}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1B5A05C-BEDF-444B-8528-D223F9BDC468}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="84ef26b6-ae16-4e4e-9392-b7fef9600143"/>
+    <ds:schemaRef ds:uri="a9ba0a46-c686-46a2-ba56-670af7ed77b3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>